--- a/CI_ratecoefficient_Cion.xlsx
+++ b/CI_ratecoefficient_Cion.xlsx
@@ -22,37 +22,37 @@
     <t>T</t>
   </si>
   <si>
-    <t>eta0</t>
+    <t>xi0</t>
   </si>
   <si>
     <t>alpha1</t>
   </si>
   <si>
-    <t>eta1</t>
+    <t>xi1</t>
   </si>
   <si>
     <t>alpha2</t>
   </si>
   <si>
-    <t>eta2</t>
+    <t>xi2</t>
   </si>
   <si>
     <t>alpha3</t>
   </si>
   <si>
-    <t>eta3</t>
+    <t>xi3</t>
   </si>
   <si>
     <t>alpha4</t>
   </si>
   <si>
-    <t>eta4</t>
+    <t>xi4</t>
   </si>
   <si>
     <t>alpha5</t>
   </si>
   <si>
-    <t>eta5</t>
+    <t>xi5</t>
   </si>
   <si>
     <t>alpha6</t>
